--- a/biology/Botanique/Geranium_umbelliforme/Geranium_umbelliforme.xlsx
+++ b/biology/Botanique/Geranium_umbelliforme/Geranium_umbelliforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium umbelliforme est une espèce de plantes herbacées sauvages de la famille des Geraniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geranium umbelliforme est originaire du centre du Sichuan et du Yunnan, en Chine, et présent à des altitudes comprises entre 2 800 et 3 200 mètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geranium umbelliforme est originaire du centre du Sichuan et du Yunnan, en Chine, et présent à des altitudes comprises entre 2 800 et 3 200 mètres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description, Adrien René Franchet indique que cette plante mesure entre 15 et 25 cm de hauteur et présente une inflorescence en ombelle semblable à cette des Erodium et des Pelargonium mais présentant en même temps dix étamines fertiles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, Adrien René Franchet indique que cette plante mesure entre 15 et 25 cm de hauteur et présente une inflorescence en ombelle semblable à cette des Erodium et des Pelargonium mais présentant en même temps dix étamines fertiles.
 </t>
         </is>
       </c>
@@ -573,13 +589,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Geranium umbelliforme Franch.[3],[2]. 
-Étymologie
-L'épithète spécifique, du latin umbella, « ombelle », et forma, « forme, apparence », lui a été donnée en référence à son inflorescence[2].
-Publication originale
-(la + fr) A. Franchet, « Plantas Yunnanenses a Cl. J.M. Delavay collectas enumerat novasque describit », Bulletin de la Société botanique de France, Inconnu, vol. 33, no 6,‎ janvier 1886, p. 358–467 (ISSN 0037-8941 et 0151-1270, OCLC 1765763, BNF 34350573, DOI 10.1080/00378941.1886.10828470, lire en ligne)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Geranium umbelliforme Franch.,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geranium_umbelliforme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_umbelliforme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, du latin umbella, « ombelle », et forma, « forme, apparence », lui a été donnée en référence à son inflorescence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geranium_umbelliforme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_umbelliforme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(la + fr) A. Franchet, « Plantas Yunnanenses a Cl. J.M. Delavay collectas enumerat novasque describit », Bulletin de la Société botanique de France, Inconnu, vol. 33, no 6,‎ janvier 1886, p. 358–467 (ISSN 0037-8941 et 0151-1270, OCLC 1765763, BNF 34350573, DOI 10.1080/00378941.1886.10828470, lire en ligne)</t>
         </is>
       </c>
     </row>
